--- a/tasksToBeMissed/data.xlsx
+++ b/tasksToBeMissed/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\plagiator\tasksToBeMissed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81A9D5-1330-4F91-BEA5-746EDFDFC234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75173D30-C2E9-49D6-85E0-BF44584990F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21852" yWindow="2160" windowWidth="15996" windowHeight="14292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19572" yWindow="2424" windowWidth="15996" windowHeight="14292" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
